--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/1.NhanBH/NBH211110_VanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/1.NhanBH/NBH211110_VanLoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\1.NhanBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\1.NhanBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -69,28 +69,25 @@
     <t>Ghi chú/Lô SX</t>
   </si>
   <si>
-    <t>ĐT :    +84915.22.33.99</t>
-  </si>
-  <si>
     <t xml:space="preserve">Địa chỉ:  </t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>sim</t>
-  </si>
-  <si>
     <t>TG102V</t>
   </si>
   <si>
     <t>Tên cty/ cá nhân: Công Ty Vạn Lợi</t>
   </si>
   <si>
-    <t>TG102LE</t>
-  </si>
-  <si>
-    <t>Hà Nội, ngày 10 tháng 11 Năm 2021</t>
+    <t>Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 15 tháng 11 Năm 2021</t>
+  </si>
+  <si>
+    <t>ĐT: 0915.22.33.99</t>
   </si>
 </sst>
 </file>
@@ -488,6 +485,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -526,45 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:F17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -939,92 +936,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1051,215 +1048,125 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="17">
-        <v>868183034774153</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>202107141357896</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="17">
-        <v>869627031782113</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="17">
-        <v>868926033941094</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="17">
-        <v>869627031755986</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="17">
-        <v>868926099921450</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="17">
-        <v>869696043500995</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-    </row>
-    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-    </row>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="8:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
